--- a/August/Others - Copy/Symphony Service Point.xlsx
+++ b/August/Others - Copy/Symphony Service Point.xlsx
@@ -58,14 +58,14 @@
     <t xml:space="preserve">      Date : </t>
   </si>
   <si>
-    <t xml:space="preserve">        Symphony Service Point Chalan </t>
+    <t xml:space="preserve">        Symphony Service Point Chalan Sheet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +119,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -134,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -179,11 +187,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -194,22 +213,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -222,18 +225,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -243,6 +240,31 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -648,75 +670,75 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6" style="26" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="19" style="11" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="41.7109375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="43.28515625" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="6" style="18" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="43.28515625" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="8.25" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75">
-      <c r="A4" s="5" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" ht="17.25">
+      <c r="A4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="12"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -742,275 +764,275 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="33" customHeight="1">
-      <c r="A7" s="13">
+      <c r="A7" s="7">
         <v>1</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="33" customHeight="1">
-      <c r="A8" s="13">
+      <c r="A8" s="7">
         <v>2</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="33" customHeight="1">
-      <c r="A9" s="13">
+      <c r="A9" s="7">
         <v>3</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="33" customHeight="1">
-      <c r="A10" s="13">
+      <c r="A10" s="7">
         <v>4</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="33" customHeight="1">
-      <c r="A11" s="13">
+      <c r="A11" s="7">
         <v>5</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="33" customHeight="1">
-      <c r="A12" s="13">
+      <c r="A12" s="7">
         <v>6</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="33" customHeight="1">
-      <c r="A13" s="13">
+      <c r="A13" s="7">
         <v>7</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="33" customHeight="1">
-      <c r="A14" s="13">
+      <c r="A14" s="7">
         <v>8</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="33" customHeight="1">
-      <c r="A15" s="13">
+      <c r="A15" s="7">
         <v>9</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" ht="33" customHeight="1">
-      <c r="A16" s="13">
+      <c r="A16" s="7">
         <v>10</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" ht="33" customHeight="1">
-      <c r="A17" s="13">
+      <c r="A17" s="7">
         <v>11</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" ht="33" customHeight="1">
-      <c r="A18" s="13">
+      <c r="A18" s="7">
         <v>12</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="33" customHeight="1">
-      <c r="A19" s="13">
+      <c r="A19" s="7">
         <v>13</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" ht="33" customHeight="1">
-      <c r="A20" s="13">
+      <c r="A20" s="7">
         <v>14</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" ht="33" customHeight="1">
-      <c r="A21" s="13">
+      <c r="A21" s="7">
         <v>15</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" ht="33" customHeight="1">
-      <c r="A22" s="13">
+      <c r="A22" s="7">
         <v>16</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" ht="33" customHeight="1">
-      <c r="A23" s="13">
+      <c r="A23" s="7">
         <v>17</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" ht="33" customHeight="1">
-      <c r="A24" s="13">
+      <c r="A24" s="7">
         <v>18</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" ht="33" customHeight="1">
-      <c r="A25" s="13">
+      <c r="A25" s="7">
         <v>19</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" ht="33" customHeight="1">
-      <c r="A26" s="13">
+      <c r="A26" s="7">
         <v>20</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="3" customHeight="1">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="1:7" s="21" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A28" s="18" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" s="14" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A28" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="24" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
+    <row r="29" spans="1:7" s="16" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="20"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:7" ht="27.95" customHeight="1">
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="11"/>
+      <c r="A32" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
